--- a/DB/DB设计.xlsx
+++ b/DB/DB设计.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48B180C6-E932-4C9D-8A51-6DC91E3706A6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Used结果表" sheetId="1" r:id="rId1"/>
@@ -17,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="212">
   <si>
     <t>Pass</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -814,12 +815,16 @@
   </si>
   <si>
     <t>110112572371,110112572370,110112572373,110112572375,110112572374,110112572368,110112572369,110112572367,110112572372,</t>
+  </si>
+  <si>
+    <t>扫描记录表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="[&lt;=999]000;[&lt;=9999]000\-00;000\-0000"/>
   </numFmts>
@@ -852,6 +857,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -866,6 +872,7 @@
       <sz val="11"/>
       <color rgb="FF7F878F"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1109,6 +1116,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -1156,7 +1166,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1189,9 +1199,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1224,6 +1251,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1399,11 +1443,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1414,62 +1458,48 @@
     <col min="4" max="4" width="12.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="5" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>14</v>
@@ -1477,38 +1507,40 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>20</v>
+        <v>98</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
-      <c r="G5" s="5"/>
+      <c r="G5" s="5" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="10" t="s">
-        <v>21</v>
+      <c r="A6" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -1516,29 +1548,27 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="10" t="s">
-        <v>78</v>
+        <v>21</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
-      <c r="G7" s="5" t="s">
-        <v>92</v>
-      </c>
+      <c r="G7" s="5"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A8" s="4" t="s">
-        <v>16</v>
+      <c r="A8" s="10" t="s">
+        <v>78</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>17</v>
+        <v>70</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>9</v>
@@ -1548,80 +1578,99 @@
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
-      <c r="G8" s="5"/>
+      <c r="G8" s="5" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A9" s="10" t="s">
-        <v>24</v>
+      <c r="A9" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>99</v>
+        <v>17</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>65</v>
+        <v>9</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
-      <c r="G9" s="5" t="s">
-        <v>92</v>
-      </c>
+      <c r="G9" s="5"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>11</v>
+        <v>65</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
-      <c r="G10" s="5"/>
+      <c r="G10" s="5" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" s="10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="5"/>
     </row>
-    <row r="12" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="25" t="s">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A12" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="5"/>
+    </row>
+    <row r="13" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B13" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C13" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="7"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="G13" t="s">
+      <c r="D13" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="7"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G14" t="s">
         <v>93</v>
       </c>
     </row>
@@ -1633,11 +1682,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2013,11 +2062,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2381,10 +2430,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:V37"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>

--- a/DB/DB设计.xlsx
+++ b/DB/DB设计.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48B180C6-E932-4C9D-8A51-6DC91E3706A6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E859C94-22AC-4A11-8E99-5F2A78CB7616}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="211">
   <si>
     <t>Pass</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -381,10 +381,6 @@
   </si>
   <si>
     <t>图片文件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DbId</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1447,7 +1443,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1460,7 +1456,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -1496,7 +1492,7 @@
         <v>41</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>97</v>
+        <v>41</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>7</v>
@@ -1515,7 +1511,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>12</v>
@@ -1551,7 +1547,7 @@
         <v>21</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>7</v>
@@ -1604,7 +1600,7 @@
         <v>24</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>65</v>
@@ -1686,7 +1682,7 @@
   <dimension ref="A1:N22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2004,7 +2000,7 @@
         <v>71</v>
       </c>
       <c r="M21" s="26" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N21" s="26" t="s">
         <v>73</v>
@@ -2012,7 +2008,7 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A22" s="19" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B22" s="19" t="s">
         <v>79</v>
@@ -2048,7 +2044,7 @@
         <v>88</v>
       </c>
       <c r="M22" s="19" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="N22" s="19" t="s">
         <v>89</v>
@@ -2066,7 +2062,7 @@
   <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2114,10 +2110,10 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>63</v>
@@ -2131,10 +2127,10 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>10</v>
@@ -2148,10 +2144,10 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>105</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>10</v>
@@ -2168,7 +2164,7 @@
         <v>30</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>66</v>
@@ -2182,10 +2178,10 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>107</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>108</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>65</v>
@@ -2199,10 +2195,10 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>64</v>
@@ -2216,10 +2212,10 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>64</v>
@@ -2233,10 +2229,10 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>9</v>
@@ -2250,10 +2246,10 @@
     </row>
     <row r="11" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="B11" s="9" t="s">
         <v>115</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>116</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>67</v>
@@ -2282,13 +2278,13 @@
         <v>46</v>
       </c>
       <c r="F15" s="26" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G15" s="26" t="s">
         <v>50</v>
       </c>
       <c r="H15" s="26" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I15" s="26" t="s">
         <v>73</v>
@@ -2299,28 +2295,28 @@
         <v>888888</v>
       </c>
       <c r="B16" s="27" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C16" s="27" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D16" s="27">
         <v>18</v>
       </c>
       <c r="E16" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="F16" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="G16" s="27" t="s">
         <v>121</v>
       </c>
-      <c r="F16" s="27" t="s">
-        <v>125</v>
-      </c>
-      <c r="G16" s="27" t="s">
+      <c r="H16" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="I16" s="27" t="s">
         <v>122</v>
-      </c>
-      <c r="H16" s="27" t="s">
-        <v>124</v>
-      </c>
-      <c r="I16" s="27" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.15">
@@ -2455,10 +2451,10 @@
   <sheetData>
     <row r="1" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B1" t="s">
         <v>186</v>
-      </c>
-      <c r="B1" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
@@ -2486,10 +2482,10 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="14" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>64</v>
@@ -2503,10 +2499,10 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>64</v>
@@ -2520,10 +2516,10 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="14" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>63</v>
@@ -2537,7 +2533,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B6" s="15" t="s">
         <v>74</v>
@@ -2554,10 +2550,10 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>63</v>
@@ -2571,10 +2567,10 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>63</v>
@@ -2588,10 +2584,10 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>64</v>
@@ -2605,10 +2601,10 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>63</v>
@@ -2622,10 +2618,10 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="17" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>63</v>
@@ -2639,10 +2635,10 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="17" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>63</v>
@@ -2656,10 +2652,10 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>64</v>
@@ -2673,10 +2669,10 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="17" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>63</v>
@@ -2690,10 +2686,10 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="17" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>64</v>
@@ -2707,10 +2703,10 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="17" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>64</v>
@@ -2722,15 +2718,15 @@
       <c r="F16" s="15"/>
       <c r="G16" s="16"/>
       <c r="H16" s="28" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A17" s="17" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>64</v>
@@ -2744,10 +2740,10 @@
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A18" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>10</v>
@@ -2761,10 +2757,10 @@
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A19" s="17" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>75</v>
@@ -2778,10 +2774,10 @@
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A20" s="17" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>63</v>
@@ -2795,10 +2791,10 @@
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A21" s="17" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>75</v>
@@ -2812,10 +2808,10 @@
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A22" s="17" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>75</v>
@@ -2829,10 +2825,10 @@
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A23" s="17" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>75</v>
@@ -2846,10 +2842,10 @@
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A24" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>9</v>
@@ -2866,7 +2862,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="23" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C25" s="23" t="s">
         <v>63</v>
@@ -2880,143 +2876,143 @@
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.15">
       <c r="N28" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="29" spans="1:22" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A29" s="18" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C29" s="18" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D29" s="18" t="s">
         <v>73</v>
       </c>
       <c r="E29" s="18" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F29" s="18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G29" s="18" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H29" s="18" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I29" s="18" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J29" s="18" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K29" s="18" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="L29" s="18" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="M29" s="18" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="N29" s="18" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="O29" s="18" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="P29" s="18" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="Q29" s="18" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="R29" s="18" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="S29" s="18" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="T29" s="18" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="U29" s="18" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="V29" s="18" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A30" s="27" t="s">
+        <v>187</v>
+      </c>
+      <c r="B30" s="27" t="s">
         <v>188</v>
       </c>
-      <c r="B30" s="27" t="s">
+      <c r="C30" s="27" t="s">
         <v>189</v>
       </c>
-      <c r="C30" s="27" t="s">
+      <c r="D30" s="27" t="s">
         <v>190</v>
       </c>
-      <c r="D30" s="27" t="s">
+      <c r="E30" s="27" t="s">
         <v>191</v>
       </c>
-      <c r="E30" s="27" t="s">
+      <c r="F30" s="27" t="s">
         <v>192</v>
       </c>
-      <c r="F30" s="27" t="s">
+      <c r="G30" s="27" t="s">
         <v>193</v>
       </c>
-      <c r="G30" s="27" t="s">
+      <c r="H30" s="27" t="s">
         <v>194</v>
       </c>
-      <c r="H30" s="27" t="s">
+      <c r="I30" s="27" t="s">
         <v>195</v>
       </c>
-      <c r="I30" s="27" t="s">
+      <c r="J30" s="27" t="s">
         <v>196</v>
       </c>
-      <c r="J30" s="27" t="s">
+      <c r="K30" s="27" t="s">
         <v>197</v>
       </c>
-      <c r="K30" s="27" t="s">
+      <c r="L30" s="27" t="s">
         <v>198</v>
       </c>
-      <c r="L30" s="27" t="s">
+      <c r="M30" s="27" t="s">
         <v>199</v>
       </c>
-      <c r="M30" s="27" t="s">
+      <c r="N30" s="27" t="s">
+        <v>195</v>
+      </c>
+      <c r="O30" s="27" t="s">
         <v>200</v>
       </c>
-      <c r="N30" s="27" t="s">
-        <v>196</v>
-      </c>
-      <c r="O30" s="27" t="s">
+      <c r="P30" s="27" t="s">
         <v>201</v>
       </c>
-      <c r="P30" s="27" t="s">
+      <c r="Q30" s="27" t="s">
         <v>202</v>
       </c>
-      <c r="Q30" s="27" t="s">
-        <v>203</v>
-      </c>
       <c r="R30" s="27" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="S30" s="27" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="T30" s="27" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="U30" s="27" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="V30" s="27" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.15">

--- a/DB/DB设计.xlsx
+++ b/DB/DB设计.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E859C94-22AC-4A11-8E99-5F2A78CB7616}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBC4D4E1-9B62-41EC-8614-68BAC6DF5F20}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Used结果表" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="212">
   <si>
     <t>Pass</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -814,6 +814,10 @@
   </si>
   <si>
     <t>扫描记录表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>888888</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1442,7 +1446,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
@@ -2061,8 +2065,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2291,8 +2295,8 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A16" s="27">
-        <v>888888</v>
+      <c r="A16" s="27" t="s">
+        <v>211</v>
       </c>
       <c r="B16" s="27" t="s">
         <v>125</v>
@@ -2429,7 +2433,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:V37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>

--- a/DB/DB设计.xlsx
+++ b/DB/DB设计.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBC4D4E1-9B62-41EC-8614-68BAC6DF5F20}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48F2A050-8366-41AA-B76B-CCE095A1C33B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Used结果表" sheetId="1" r:id="rId1"/>
@@ -1686,7 +1686,7 @@
   <dimension ref="A1:N22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2065,8 +2065,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2433,8 +2433,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:V37"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/DB/DB设计.xlsx
+++ b/DB/DB设计.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48F2A050-8366-41AA-B76B-CCE095A1C33B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6ACF836-2E2F-4ADE-AE2F-2F4712C46E27}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Used结果表" sheetId="1" r:id="rId1"/>
@@ -1685,8 +1685,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2433,7 +2433,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:V37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>

--- a/DB/DB设计.xlsx
+++ b/DB/DB设计.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22827"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6ACF836-2E2F-4ADE-AE2F-2F4712C46E27}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACD29893-3575-46C7-A0DD-C0F8F9D5D807}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2325" yWindow="3345" windowWidth="21600" windowHeight="12735" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Used结果表" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="211">
   <si>
     <t>Pass</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -784,10 +784,6 @@
   </si>
   <si>
     <t>732526.00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>unit</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1460,7 +1456,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -1685,7 +1681,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
@@ -2012,7 +2008,7 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A22" s="19" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B22" s="19" t="s">
         <v>79</v>
@@ -2048,7 +2044,7 @@
         <v>88</v>
       </c>
       <c r="M22" s="19" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="N22" s="19" t="s">
         <v>89</v>
@@ -2065,8 +2061,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2296,7 +2292,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16" s="27" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B16" s="27" t="s">
         <v>125</v>
@@ -2434,7 +2430,7 @@
   <dimension ref="A1:V37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2710,7 +2706,7 @@
         <v>162</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>64</v>
@@ -2721,9 +2717,7 @@
       <c r="E16" s="15"/>
       <c r="F16" s="15"/>
       <c r="G16" s="16"/>
-      <c r="H16" s="28" t="s">
-        <v>203</v>
-      </c>
+      <c r="H16" s="28"/>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A17" s="17" t="s">
@@ -2880,7 +2874,7 @@
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.15">
       <c r="N28" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="29" spans="1:22" ht="40.5" x14ac:dyDescent="0.15">
@@ -2924,7 +2918,7 @@
         <v>159</v>
       </c>
       <c r="N29" s="18" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="O29" s="18" t="s">
         <v>163</v>
@@ -3016,7 +3010,7 @@
         <v>202</v>
       </c>
       <c r="V30" s="27" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.15">
@@ -3190,5 +3184,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>